--- a/sniplets/ESP32-power-consumption.xlsx
+++ b/sniplets/ESP32-power-consumption.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software\Library\Github\ESP32\sniplets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F77F0F-FFF8-46AE-9078-8BA1C0F5A172}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149D4AEA-9EBF-4AF9-8A0F-71198023DF07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13620" yWindow="930" windowWidth="13080" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>on</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>WEMOS</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>LiPo</t>
+  </si>
+  <si>
+    <t>TTGO</t>
+  </si>
+  <si>
+    <t>DOIT</t>
+  </si>
+  <si>
+    <t>DEVKIT V1</t>
   </si>
 </sst>
 </file>
@@ -84,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,12 +107,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,37 +409,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -422,10 +472,13 @@
         <v>35.799999999999997</v>
       </c>
       <c r="E3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -439,31 +492,52 @@
         <v>100</v>
       </c>
       <c r="E4">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>116</v>
+      </c>
+      <c r="F5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -474,15 +548,127 @@
         <v>0.79</v>
       </c>
       <c r="E8">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="C9">
         <v>0.35</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>68</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>104</v>
+      </c>
+      <c r="E13">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>108</v>
+      </c>
+      <c r="D14">
+        <v>131</v>
+      </c>
+      <c r="E14">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>2.5</v>
+      </c>
+      <c r="E17">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>0.35</v>
+      </c>
+      <c r="D18">
+        <v>0.79</v>
+      </c>
+      <c r="E18">
+        <v>6.3E-2</v>
       </c>
     </row>
   </sheetData>
